--- a/Ev/document/list/1.xlsx
+++ b/Ev/document/list/1.xlsx
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
